--- a/EvenementsEnDirect/docs/analyse/Plans de test TPI Davila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Plans de test TPI Davila 2020.xlsx
@@ -10,8 +10,8 @@
     <sheet state="visible" name="DisconnectionTest" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="EditEventTest" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="ManageEventTest" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="C#ShowEventsTest" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="C#ShowEventDetailsTest" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="MobileShowEventsTest" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="MobileShowEventDetailsTest" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="135">
   <si>
     <t>TPI Davila 2020</t>
   </si>
   <si>
-    <t>Overview</t>
-  </si>
-  <si>
     <t>Reference Information</t>
   </si>
   <si>
@@ -54,15 +51,6 @@
     <t>Test Schedule</t>
   </si>
   <si>
-    <t>Change Log</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Test Instructions</t>
-  </si>
-  <si>
     <t>Test Results Summary (Auto Calculated)</t>
   </si>
   <si>
@@ -93,7 +81,7 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Search and add new customers to the system</t>
+    <t>Acceder à l'application/connexion</t>
   </si>
   <si>
     <t>Total Passed</t>
@@ -188,6 +176,9 @@
   </si>
   <si>
     <t>Redirection vers la page register</t>
+  </si>
+  <si>
+    <t>Création d'un compte</t>
   </si>
   <si>
     <t>Saisir les informations d'enregistrement et cliquer sur Register</t>
@@ -230,6 +221,9 @@
   </si>
   <si>
     <t>Le STATE de TestUser est passé à 1(validé) et redirection vers la page de login</t>
+  </si>
+  <si>
+    <t>Création d'un événement</t>
   </si>
   <si>
     <t>L'utilisateur clique sur la partie Create Event du nav</t>
@@ -264,13 +258,16 @@
 time: 14:30</t>
   </si>
   <si>
-    <t>Not Started</t>
+    <t>Déconnexion</t>
   </si>
   <si>
     <t>L'utilisateur clique sur la partie Disconnect du nav</t>
   </si>
   <si>
     <t>Déconnexion et redirection vers la page de login</t>
+  </si>
+  <si>
+    <t>Modification d'un événement</t>
   </si>
   <si>
     <t>L'utilisateur clique sur le bouton Modify d'un des événement de son dashboard</t>
@@ -317,6 +314,9 @@
     <t>L'événement est supprimé et l'utilisateur est redirigé vers le dashboard</t>
   </si>
   <si>
+    <t>Gestion d'un événement</t>
+  </si>
+  <si>
     <t>L'utilisateur clique sur le bouton Manage d'un des événements pas encore commencés du dashboard</t>
   </si>
   <si>
@@ -401,6 +401,9 @@
     <t>L'événement est supprimé et l'utilisateur redirigé vers le dashboard</t>
   </si>
   <si>
+    <t>Consultation des événements(Mobile)</t>
+  </si>
+  <si>
     <t>L'utilisateur démarre l'application</t>
   </si>
   <si>
@@ -423,6 +426,9 @@
   </si>
   <si>
     <t>L'utilisateur est redirigé sur une page affichant les informations de l'événement cliqué</t>
+  </si>
+  <si>
+    <t>Consultation d'un événement(Mobile)</t>
   </si>
   <si>
     <t>L'utilisateur clique sur le bouton EVENTS</t>
@@ -453,10 +459,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -485,6 +492,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="15.0"/>
       <color rgb="FF1F497D"/>
@@ -510,10 +525,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -523,7 +534,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,14 +561,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FF4F81BD"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0504D"/>
         <bgColor rgb="FFC0504D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
   </fills>
@@ -581,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -606,23 +623,23 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -633,55 +650,67 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -926,6 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -959,9 +989,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -973,23 +1001,23 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2"/>
@@ -997,16 +1025,18 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43991.0</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1015,7 +1045,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1024,7 +1054,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1047,19 +1077,11 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1070,59 +1092,59 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="10"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="10"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="10"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1150,13 +1172,13 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1171,15 +1193,15 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="13" t="str">
-        <f>SUM(LoginTest!D2+RegisterTest!D2+CreateEventTest!D2+DisconnectionTest!D2+EditEventTest!D2+ManageEventTest!D2+C#ShowEventsTest!D2+C#ShowEventDetails!D2)</f>
-        <v>#ERROR!</v>
-      </c>
-      <c r="C21" s="14" t="str">
+        <v>13</v>
+      </c>
+      <c r="B21" s="13">
+        <f>SUM(LoginTest!D2,RegisterTest!D2,CreateEventTest!D2,DisconnectionTest!D2,EditEventTest!D2,ManageEventTest!D2,MobileShowEventsTest!D2,MobileShowEventDetailsTest!D2)</f>
+        <v>34</v>
+      </c>
+      <c r="C21" s="14">
         <f>B21/SUM(B21:B23)</f>
-        <v>#ERROR!</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1194,15 +1216,15 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B22" s="15">
-        <f>SUM(LoginTest!D3)</f>
+        <f>SUM(LoginTest!D3,RegisterTest!D3,CreateEventTest!D3,DisconnectionTest!D3,EditEventTest!D3,ManageEventTest!D3,MobileShowEventsTest!D3,MobileShowEventDetailsTest!D3)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="16">
         <f>B22/SUM(B21:B23)</f>
-        <v>#ERROR!</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1217,15 +1239,15 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="13">
-        <f>SUM(LoginTest!D4)</f>
+        <v>15</v>
+      </c>
+      <c r="B23" s="17">
+        <f>SUM(LoginTest!D4,RegisterTest!D4,CreateEventTest!D4,DisconnectionTest!D4,EditEventTest!D4,ManageEventTest!D4,MobileShowEventsTest!D4,MobileShowEventDetailsTest!D4)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C23" s="14">
         <f>B23/SUM(B21:B23)</f>
-        <v>#ERROR!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,6 +1255,9 @@
     <mergeCell ref="E3:L8"/>
     <mergeCell ref="E11:L17"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1257,17 +1282,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1292,24 +1317,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1331,24 +1356,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1370,13 +1395,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
@@ -1490,32 +1515,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1536,25 +1561,25 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1574,25 +1599,25 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1612,25 +1637,25 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26"/>
+      <c r="D11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1650,23 +1675,23 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="A12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1710,17 +1735,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1745,24 +1770,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>5</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1784,24 +1809,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1823,13 +1848,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
@@ -1943,32 +1968,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1989,27 +2014,27 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2029,25 +2054,25 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2067,25 +2092,25 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2105,76 +2130,76 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2201,17 +2226,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2236,24 +2261,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>3</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2275,24 +2300,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2314,17 +2339,17 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2434,32 +2459,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2480,25 +2505,25 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2518,25 +2543,25 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2556,25 +2581,25 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2594,68 +2619,64 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
+      <c r="A12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
+      <c r="A13" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2682,17 +2703,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2717,24 +2738,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2756,24 +2777,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2795,13 +2816,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
@@ -2915,32 +2936,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2961,25 +2982,25 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3023,17 +3044,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -3058,24 +3079,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3097,24 +3118,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3136,17 +3157,17 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3256,32 +3277,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3302,27 +3323,27 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3342,25 +3363,25 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3380,25 +3401,25 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3418,72 +3439,68 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3510,17 +3527,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -3545,24 +3562,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>9</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3584,24 +3601,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3623,13 +3640,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
@@ -3743,32 +3760,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3789,27 +3806,27 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3829,25 +3846,25 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3867,23 +3884,23 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3903,226 +3920,226 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
     </row>
     <row r="15">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
     </row>
     <row r="17">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4149,17 +4166,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4184,24 +4201,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -4223,24 +4240,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -4262,17 +4279,17 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4382,32 +4399,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4428,25 +4445,25 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -4466,23 +4483,23 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -4502,23 +4519,23 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
+      <c r="C11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -4538,72 +4555,68 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
+      <c r="C12" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4630,17 +4643,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4665,24 +4678,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -4704,24 +4717,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -4743,13 +4756,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <f>COUNTIF(F:F,"Not Started")</f>
@@ -4863,32 +4876,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>4</v>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4909,25 +4922,25 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -4947,23 +4960,23 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -4983,23 +4996,23 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
+      <c r="A11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -5019,40 +5032,40 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
+      <c r="A12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/EvenementsEnDirect/docs/analyse/Plans de test TPI Davila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Plans de test TPI Davila 2020.xlsx
@@ -463,7 +463,7 @@
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -489,14 +489,6 @@
     <font>
       <sz val="14.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -598,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -623,16 +615,16 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -653,22 +645,22 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -677,40 +669,28 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1637,7 +1617,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -1646,16 +1626,16 @@
       <c r="C11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1675,7 +1655,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -1684,14 +1664,14 @@
       <c r="C12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2030,7 +2010,7 @@
       <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="27"/>
@@ -2092,7 +2072,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -2104,13 +2084,13 @@
       <c r="D11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2130,7 +2110,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -2139,34 +2119,34 @@
       <c r="C12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -2175,31 +2155,31 @@
       <c r="C13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2516,10 +2496,10 @@
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="27"/>
@@ -2556,7 +2536,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="25"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="25"/>
@@ -2594,7 +2574,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="25"/>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="25"/>
@@ -2619,17 +2599,17 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2649,17 +2629,17 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2991,12 +2971,12 @@
       <c r="C9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="27"/>
@@ -3336,10 +3316,10 @@
         <v>80</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="27"/>
@@ -3456,34 +3436,34 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
     <row r="13">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -3822,7 +3802,7 @@
       <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="27"/>
@@ -3898,7 +3878,7 @@
       <c r="F11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="27"/>
       <c r="I11" s="25"/>
       <c r="J11" s="2"/>
@@ -3939,23 +3919,23 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
@@ -3977,26 +3957,26 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
     </row>
     <row r="14">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -4008,33 +3988,33 @@
       <c r="D14" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -4043,34 +4023,34 @@
       <c r="C15" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -4079,34 +4059,34 @@
       <c r="C16" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
     </row>
     <row r="17">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -4115,31 +4095,31 @@
       <c r="C17" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4456,10 +4436,10 @@
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="27"/>
@@ -4494,7 +4474,7 @@
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="25"/>
@@ -4530,7 +4510,7 @@
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="33" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="25"/>
@@ -4566,40 +4546,40 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="32" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
     <row r="13">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -4931,12 +4911,12 @@
       <c r="C9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="27"/>
@@ -4969,9 +4949,9 @@
       <c r="C10" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="25"/>
@@ -5005,9 +4985,9 @@
       <c r="C11" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="33" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="25"/>
@@ -5043,29 +5023,29 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="32" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
